--- a/일정관리/221005_VPS 1팀 마일스톤_V100.xlsx
+++ b/일정관리/221005_VPS 1팀 마일스톤_V100.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>9월</t>
   </si>
@@ -118,6 +118,26 @@
   </si>
   <si>
     <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니과제 기획, 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>09.27 2</t>
     </r>
     <r>
@@ -147,7 +167,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">프로토타입
+      <t xml:space="preserve">프로토
 </t>
     </r>
     <r>
@@ -187,6 +207,328 @@
         <charset val="129"/>
       </rPr>
       <t>출시</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨셉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확정</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기술</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> R&amp;D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핵심 기능 선정 &amp; 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.28 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로토</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11.18 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로토</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버깅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11.21 CBT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12.05 OBT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+12.09 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,7 +537,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +572,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -240,18 +590,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -274,41 +624,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -333,13 +827,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:colOff>1066800</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
@@ -350,7 +844,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3667125" y="647700"/>
+          <a:off x="2286000" y="647700"/>
           <a:ext cx="828675" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -405,15 +899,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:colOff>1352550</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
+      <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -422,7 +916,156 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16182975" y="657225"/>
+          <a:off x="14935200" y="647700"/>
+          <a:ext cx="723900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>게임 출시</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14182725" y="647700"/>
+          <a:ext cx="723900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OBT</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="647700"/>
           <a:ext cx="828675" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -467,7 +1110,353 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>게임 출시</a:t>
+            <a:t>컨셉 확정</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14287500" y="647700"/>
+          <a:ext cx="733425" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CBT</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24174450" y="647700"/>
+          <a:ext cx="828675" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CBT</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="647700"/>
+          <a:ext cx="828675" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>차</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>프로토</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13239750" y="647700"/>
+          <a:ext cx="828675" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>차</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>프로토</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -742,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -754,168 +1743,191 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="C6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+    <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="D8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:M5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일정관리/221005_VPS 1팀 마일스톤_V100.xlsx
+++ b/일정관리/221005_VPS 1팀 마일스톤_V100.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>9월</t>
   </si>
@@ -530,6 +530,99 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상황에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10.07 컨셉 기획서 초안 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +630,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +673,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -739,6 +840,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -748,62 +861,50 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1732,7 +1833,7 @@
   <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1743,65 +1844,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="4"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="8" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10"/>
@@ -1817,7 +1918,7 @@
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1831,72 +1932,74 @@
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="16" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="24" t="s">
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="21"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21" t="s">
+      <c r="E8" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1904,20 +2007,23 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
+      <c r="C9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:H2"/>

--- a/일정관리/221005_VPS 1팀 마일스톤_V100.xlsx
+++ b/일정관리/221005_VPS 1팀 마일스톤_V100.xlsx
@@ -830,7 +830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,6 +852,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -886,25 +895,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1833,7 +1836,7 @@
   <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1844,29 +1847,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="8"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1902,66 +1905,66 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="25" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="5"/>
@@ -1983,7 +1986,7 @@
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="5"/>
@@ -2007,10 +2010,10 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -2022,7 +2025,7 @@
       <c r="M9" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B2:B3"/>
@@ -2034,6 +2037,7 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일정관리/221005_VPS 1팀 마일스톤_V100.xlsx
+++ b/일정관리/221005_VPS 1팀 마일스톤_V100.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>9월</t>
   </si>
@@ -622,7 +622,190 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">10.07 컨셉 기획서 초안 </t>
+    <t xml:space="preserve">10.06 2차 기업 미팅
+10.07 컨셉 기획서 초안 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨셉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨셉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">제안서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마일스톤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, WBS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+구글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기술</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> R&amp;D</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,8 +1035,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -895,19 +1081,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1836,7 +2019,7 @@
   <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1847,29 +2030,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="11"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1905,66 +2088,66 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="9"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="25" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="5"/>
@@ -1986,7 +2169,7 @@
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="5"/>
@@ -2006,15 +2189,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="281.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
